--- a/teaching/traditional_assets/database/data/mexico/mexico_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/mexico/mexico_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.144</v>
       </c>
       <c r="E2">
-        <v>0.43</v>
+        <v>0.145</v>
       </c>
       <c r="F2">
-        <v>0.09369999999999999</v>
+        <v>-0.007209999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -612,85 +612,85 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>242.9</v>
+        <v>152.1</v>
       </c>
       <c r="L2">
-        <v>0.316977684979773</v>
+        <v>0.3661531054405393</v>
       </c>
       <c r="M2">
-        <v>862.5999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>0.46903121618609</v>
+        <v>0.002042429832652523</v>
       </c>
       <c r="O2">
-        <v>3.551255660765747</v>
+        <v>0.02038132807363577</v>
       </c>
       <c r="P2">
-        <v>100.3</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.05453724899543801</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.4129271305063812</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>762.3</v>
+        <v>3.1</v>
       </c>
       <c r="T2">
-        <v>0.8837236262462324</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>202.5</v>
+        <v>344.5</v>
       </c>
       <c r="V2">
-        <v>0.1101076063965723</v>
+        <v>0.2269732507576756</v>
       </c>
       <c r="W2">
-        <v>0.204056924051467</v>
+        <v>0.1597521268774288</v>
       </c>
       <c r="X2">
-        <v>1.303322534250016</v>
+        <v>0.128488543636297</v>
       </c>
       <c r="Y2">
-        <v>-1.099265610198549</v>
+        <v>0.03126358324113179</v>
       </c>
       <c r="Z2">
-        <v>0.4038897380488062</v>
+        <v>0.2473797046212482</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04799185045295086</v>
+        <v>0.04985290552385511</v>
       </c>
       <c r="AC2">
-        <v>-0.04799185045295086</v>
+        <v>-0.04985290552385511</v>
       </c>
       <c r="AD2">
-        <v>1151.3</v>
+        <v>5446.2</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1151.3</v>
+        <v>5446.2</v>
       </c>
       <c r="AG2">
-        <v>948.8</v>
+        <v>5101.7</v>
       </c>
       <c r="AH2">
-        <v>0.3849973749418976</v>
+        <v>0.7820505456634118</v>
       </c>
       <c r="AI2">
-        <v>0.5061994372142105</v>
+        <v>0.8464587121741969</v>
       </c>
       <c r="AJ2">
-        <v>0.3403266246040941</v>
+        <v>0.7707077573834882</v>
       </c>
       <c r="AK2">
-        <v>0.4579371591293017</v>
+        <v>0.8377725959012087</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -707,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Banco Actinver S.A., Institución de Banca Múltiple, Grupo Financiero Actinver (BMV:FNOVA 17)</t>
+          <t>Regional S.A.B. de C.V. (BMV:R A)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,10 +716,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.188</v>
+        <v>0.144</v>
       </c>
       <c r="E3">
-        <v>0.647</v>
+        <v>0.145</v>
+      </c>
+      <c r="F3">
+        <v>-0.007209999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.1</v>
+        <v>152.1</v>
       </c>
       <c r="L3">
-        <v>0.1103896103896104</v>
+        <v>0.3661531054405393</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.002042429832652523</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.02038132807363577</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,188 +761,66 @@
         <v>-0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3.1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>32.1</v>
+        <v>344.5</v>
       </c>
       <c r="V3">
-        <v>15.2132701421801</v>
+        <v>0.2269732507576756</v>
       </c>
       <c r="W3">
-        <v>0.1610787172011662</v>
+        <v>0.1597521268774288</v>
       </c>
       <c r="X3">
-        <v>2.547619121259381</v>
+        <v>0.128488543636297</v>
       </c>
       <c r="Y3">
-        <v>-2.386540404058215</v>
+        <v>0.03126358324113179</v>
       </c>
       <c r="Z3">
-        <v>0.48545101842871</v>
+        <v>0.2473797046212482</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04754708592804745</v>
+        <v>0.04985290552385511</v>
       </c>
       <c r="AC3">
-        <v>-0.04754708592804745</v>
+        <v>-0.04985290552385511</v>
       </c>
       <c r="AD3">
-        <v>253.8</v>
+        <v>5446.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>253.8</v>
+        <v>5446.2</v>
       </c>
       <c r="AG3">
-        <v>221.7</v>
+        <v>5101.7</v>
       </c>
       <c r="AH3">
-        <v>0.9917549138368957</v>
+        <v>0.7820505456634118</v>
       </c>
       <c r="AI3">
-        <v>0.597457627118644</v>
+        <v>0.8464587121741969</v>
       </c>
       <c r="AJ3">
-        <v>0.9905723604843394</v>
+        <v>0.7707077573834882</v>
       </c>
       <c r="AK3">
-        <v>0.5645530939648586</v>
+        <v>0.8377725959012087</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Regional S.A.B. de C.V. (BMV:R A)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Banks (Regional)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.212</v>
-      </c>
-      <c r="E4">
-        <v>0.213</v>
-      </c>
-      <c r="F4">
-        <v>0.09369999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>220.8</v>
-      </c>
-      <c r="L4">
-        <v>0.3900370959194489</v>
-      </c>
-      <c r="M4">
-        <v>862.5999999999999</v>
-      </c>
-      <c r="N4">
-        <v>0.4695699510070767</v>
-      </c>
-      <c r="O4">
-        <v>3.906702898550724</v>
-      </c>
-      <c r="P4">
-        <v>100.3</v>
-      </c>
-      <c r="Q4">
-        <v>0.05459989112683723</v>
-      </c>
-      <c r="R4">
-        <v>0.4542572463768116</v>
-      </c>
-      <c r="S4">
-        <v>762.3</v>
-      </c>
-      <c r="T4">
-        <v>0.8837236262462324</v>
-      </c>
-      <c r="U4">
-        <v>170.4</v>
-      </c>
-      <c r="V4">
-        <v>0.09275993467610234</v>
-      </c>
-      <c r="W4">
-        <v>0.2470351309017678</v>
-      </c>
-      <c r="X4">
-        <v>0.05902594724065004</v>
-      </c>
-      <c r="Y4">
-        <v>0.1880091836611177</v>
-      </c>
-      <c r="Z4">
-        <v>0.3812377937908277</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.04843661497785427</v>
-      </c>
-      <c r="AC4">
-        <v>-0.04843661497785427</v>
-      </c>
-      <c r="AD4">
-        <v>897.5</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>897.5</v>
-      </c>
-      <c r="AG4">
-        <v>727.1</v>
-      </c>
-      <c r="AH4">
-        <v>0.3282135673797769</v>
-      </c>
-      <c r="AI4">
-        <v>0.4852400519031142</v>
-      </c>
-      <c r="AJ4">
-        <v>0.2835692835692836</v>
-      </c>
-      <c r="AK4">
-        <v>0.4330038113387327</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
         <v>0</v>
       </c>
     </row>
